--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="943">
   <si>
     <t>anchor score</t>
   </si>
@@ -109,748 +109,748 @@
     <t>fake</t>
   </si>
   <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
   </si>
   <si>
     <t>social</t>
@@ -3208,10 +3208,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3269,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03054159274467106</v>
+        <v>0.03094990687954466</v>
       </c>
       <c r="C3">
         <v>267</v>
@@ -3319,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02828484429015089</v>
+        <v>0.02866298769029765</v>
       </c>
       <c r="C4">
         <v>229</v>
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0132166397743657</v>
+        <v>0.01339333458136288</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -3390,7 +3390,7 @@
         <v>2253</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.01068627093686957</v>
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0116726201943595</v>
+        <v>0.01182867282253161</v>
       </c>
       <c r="C6">
         <v>39</v>
@@ -3440,7 +3440,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.009319300248883184</v>
@@ -3469,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01040679256513331</v>
+        <v>0.0105459221952926</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3490,7 +3490,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7">
         <v>0.009286997551172599</v>
@@ -3519,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01040679256513331</v>
+        <v>0.0105459221952926</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -3540,7 +3540,7 @@
         <v>1615</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>0.008873297208401829</v>
@@ -3569,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01023756514778818</v>
+        <v>0.01037443235676046</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -3590,7 +3590,7 @@
         <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="K9">
         <v>0.008186284131908639</v>
@@ -3599,19 +3599,19 @@
         <v>223</v>
       </c>
       <c r="M9">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="N9">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3619,7 +3619,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01006549297435055</v>
+        <v>0.01020005973025804</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -3640,7 +3640,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10">
         <v>0.007906168211480621</v>
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009712207068410684</v>
+        <v>0.009842050703613478</v>
       </c>
       <c r="C11">
         <v>27</v>
@@ -3690,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0.00765511445384473</v>
@@ -3719,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009345575608953823</v>
+        <v>0.009470517705181978</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -3740,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>0.007576193640263285</v>
@@ -3769,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009156756637814817</v>
+        <v>0.009279174391075895</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -3790,7 +3790,7 @@
         <v>125</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>0.007293248575314536</v>
@@ -3819,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008963961221784642</v>
+        <v>0.009083801470520594</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -3840,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="K14">
         <v>0.007231177245878088</v>
@@ -3849,19 +3849,19 @@
         <v>174</v>
       </c>
       <c r="M14">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3869,7 +3869,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008565361528192783</v>
+        <v>0.008679872850883178</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -3890,7 +3890,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15">
         <v>0.006578329587446954</v>
@@ -3919,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008358936940193898</v>
+        <v>0.008470688548360887</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -3940,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>0.006509444656885678</v>
@@ -3969,7 +3969,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008147283929729663</v>
+        <v>0.008256205923980195</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -3990,7 +3990,7 @@
         <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>0.006250374778174639</v>
@@ -4019,7 +4019,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007929983864619416</v>
+        <v>0.008036000748817725</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -4040,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <v>0.006177834122701837</v>
@@ -4069,7 +4069,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007706559073582541</v>
+        <v>0.007809588965549495</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -4090,7 +4090,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>0.006005165842913916</v>
@@ -4119,7 +4119,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007476460487163059</v>
+        <v>0.007576414164145583</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -4140,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K20">
         <v>0.005827383559898975</v>
@@ -4169,7 +4169,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007476460487163059</v>
+        <v>0.007576414164145583</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>0.005670564197162028</v>
@@ -4219,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00723905173884008</v>
+        <v>0.007335831470426457</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -4240,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K22">
         <v>0.005644004031488787</v>
@@ -4269,7 +4269,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -4290,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>0.005399086056676089</v>
@@ -4319,7 +4319,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>0.005371183616366136</v>
@@ -4369,7 +4369,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -4390,7 +4390,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K25">
         <v>0.005371183616366136</v>
@@ -4419,28 +4419,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00699358840217929</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K26">
         <v>0.004994286230679599</v>
@@ -4469,7 +4469,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27">
         <v>0.004903197378643179</v>
@@ -4519,7 +4519,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4537,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K28">
         <v>0.004683772719423325</v>
@@ -4569,7 +4569,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>0.004651581460163844</v>
@@ -4619,7 +4619,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C30">
         <v>13</v>
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>0.004586521172652719</v>
@@ -4669,28 +4669,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31">
         <v>0.004487162360241623</v>
@@ -4719,28 +4719,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C32">
         <v>13</v>
       </c>
       <c r="D32">
-        <v>204</v>
+        <v>393</v>
       </c>
       <c r="E32">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F32">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>214</v>
+        <v>2808</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K32">
         <v>0.004453550183897674</v>
@@ -4769,28 +4769,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="E33">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F33">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2808</v>
+        <v>592</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K33">
         <v>0.004351156032650691</v>
@@ -4819,28 +4819,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006739190411361722</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K34">
         <v>0.004281533044030394</v>
@@ -4869,7 +4869,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006474804712273788</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -4887,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>0.004102309248917411</v>
@@ -4919,28 +4919,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006474804712273788</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C36">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>627</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K36">
         <v>0.004102309248917411</v>
@@ -4969,25 +4969,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006474804712273788</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C37">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E37">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F37">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>627</v>
+        <v>88</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>279</v>
@@ -5019,28 +5019,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006474804712273788</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K38">
         <v>0.004065516494503395</v>
@@ -5069,7 +5069,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006199153548959403</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -5087,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K39">
         <v>0.003798000358130578</v>
@@ -5119,28 +5119,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006199153548959403</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>679</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>0.003758229624927917</v>
@@ -5169,28 +5169,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006199153548959403</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C41">
         <v>11</v>
       </c>
       <c r="D41">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="E41">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F41">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>679</v>
+        <v>241</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41">
         <v>0.003758229624927917</v>
@@ -5219,28 +5219,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006199153548959403</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K42">
         <v>0.003718033499985129</v>
@@ -5269,25 +5269,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006199153548959403</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="F43">
-        <v>0.09999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>241</v>
+        <v>934</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>280</v>
@@ -5319,7 +5319,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K44">
         <v>0.003636308498142496</v>
@@ -5369,28 +5369,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C45">
         <v>9</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>934</v>
+        <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K45">
         <v>0.003467084115934695</v>
@@ -5419,7 +5419,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K46">
         <v>0.003423471258867599</v>
@@ -5469,7 +5469,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C47">
         <v>9</v>
@@ -5487,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K47">
         <v>0.003379295585416927</v>
@@ -5519,28 +5519,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K48">
         <v>0.003289164793723477</v>
@@ -5569,25 +5569,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C49">
         <v>9</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>511</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>281</v>
@@ -5619,28 +5619,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C50">
         <v>9</v>
       </c>
       <c r="D50">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F50">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K50">
         <v>0.003243160223238414</v>
@@ -5669,28 +5669,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005607345365372295</v>
+        <v>0.005357333832545151</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K51">
         <v>0.003101054306775897</v>
@@ -5719,25 +5719,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005607345365372295</v>
+        <v>0.005357333832545151</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>282</v>
@@ -5769,28 +5769,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005286655909746278</v>
+        <v>0.005357333832545151</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>1080</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K53">
         <v>0.003002582921456958</v>
@@ -5819,13 +5819,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005286655909746278</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5837,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K54">
         <v>0.002952115748670914</v>
@@ -5869,25 +5869,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005286655909746278</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1080</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>283</v>
@@ -5919,7 +5919,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -5937,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K56">
         <v>0.002952115748670914</v>
@@ -5969,7 +5969,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K57">
         <v>0.002900770688433794</v>
@@ -6019,7 +6019,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K58">
         <v>0.002900770688433794</v>
@@ -6069,7 +6069,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>284</v>
@@ -6119,7 +6119,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -6137,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K60">
         <v>0.002900770688433794</v>
@@ -6169,7 +6169,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -6187,10 +6187,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K61">
         <v>0.002848500268597934</v>
@@ -6219,28 +6219,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C62">
         <v>7</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K62">
         <v>0.002848500268597934</v>
@@ -6269,13 +6269,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004945213784008568</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>285</v>
@@ -6319,25 +6319,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004945213784008568</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>286</v>
@@ -6369,7 +6369,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K65">
         <v>0.002795252577769732</v>
@@ -6419,7 +6419,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K66">
         <v>0.002795252577769732</v>
@@ -6469,7 +6469,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>287</v>
@@ -6519,7 +6519,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>288</v>
@@ -6569,7 +6569,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -6587,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>0.002740970661436231</v>
@@ -6619,25 +6619,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C70">
         <v>6</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>289</v>
@@ -6669,28 +6669,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C71">
         <v>6</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K71">
         <v>0.002685591808183068</v>
@@ -6719,25 +6719,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C72">
         <v>6</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="E72">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F72">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>290</v>
@@ -6769,25 +6769,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004578378318907408</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>293</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>291</v>
@@ -6819,28 +6819,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004578378318907408</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K74">
         <v>0.002629046700518238</v>
@@ -6869,7 +6869,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K75">
         <v>0.002629046700518238</v>
@@ -6919,7 +6919,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K76">
         <v>0.002629046700518238</v>
@@ -6969,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>292</v>
@@ -7019,7 +7019,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -7037,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K78">
         <v>0.002571258397522829</v>
@@ -7069,25 +7069,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>293</v>
@@ -7119,13 +7119,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004179468470096949</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K80">
         <v>0.002512141106736941</v>
@@ -7169,28 +7169,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004179468470096949</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K81">
         <v>0.00245159868932159</v>
@@ -7219,7 +7219,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>294</v>
@@ -7269,7 +7269,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>295</v>
@@ -7319,7 +7319,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>296</v>
@@ -7369,7 +7369,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K85">
         <v>0.002325790730081922</v>
@@ -7419,7 +7419,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>297</v>
@@ -7469,7 +7469,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>298</v>
@@ -7519,28 +7519,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K88">
         <v>0.002260262310764137</v>
@@ -7569,28 +7569,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K89">
         <v>0.002260262310764137</v>
@@ -7619,28 +7619,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K90">
         <v>0.002192776529148985</v>
@@ -7669,28 +7669,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E91">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F91">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K91">
         <v>0.002192776529148985</v>
@@ -7719,28 +7719,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E92">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F92">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K92">
         <v>0.00212314674483713</v>
@@ -7769,25 +7769,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003738230243581529</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>299</v>
@@ -7819,25 +7819,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003738230243581529</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>300</v>
@@ -7869,7 +7869,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>301</v>
@@ -7919,7 +7919,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7940,7 +7940,7 @@
         <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K96">
         <v>0.00212314674483713</v>
@@ -7969,7 +7969,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -8019,7 +8019,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K98">
         <v>0.00212314674483713</v>
@@ -8069,7 +8069,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>303</v>
@@ -8119,7 +8119,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>304</v>
@@ -8169,7 +8169,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -8190,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K101">
         <v>0.002051154624458706</v>
@@ -8219,28 +8219,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K102">
         <v>0.002051154624458706</v>
@@ -8269,25 +8269,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>305</v>
@@ -8319,25 +8319,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>306</v>
@@ -8369,25 +8369,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E105">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F105">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>307</v>
@@ -8419,25 +8419,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E106">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F106">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>308</v>
@@ -8469,25 +8469,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E107">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F107">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>309</v>
@@ -8519,25 +8519,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="E108">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F108">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>310</v>
@@ -8569,28 +8569,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E109">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F109">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K109">
         <v>0.001976542052870155</v>
@@ -8619,25 +8619,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E110">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>311</v>
@@ -8669,25 +8669,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="E111">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F111">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>312</v>
@@ -8719,25 +8719,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>313</v>
@@ -8769,25 +8769,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E113">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F113">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>314</v>
@@ -8819,25 +8819,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>315</v>
@@ -8869,25 +8869,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003237402356136894</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>316</v>
@@ -8919,13 +8919,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003237402356136894</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>317</v>
@@ -8969,7 +8969,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -8987,10 +8987,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K117">
         <v>0.001818154249071248</v>
@@ -9019,7 +9019,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -9037,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K118">
         <v>0.001818154249071248</v>
@@ -9069,7 +9069,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>318</v>
@@ -9119,7 +9119,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>319</v>
@@ -9169,7 +9169,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K121">
         <v>0.001733542057967348</v>
@@ -9219,7 +9219,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K122">
         <v>0.001733542057967348</v>
@@ -9269,7 +9269,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>320</v>
@@ -9319,7 +9319,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K124">
         <v>0.001733542057967348</v>
@@ -9369,7 +9369,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>321</v>
@@ -9419,7 +9419,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>322</v>
@@ -9469,7 +9469,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>323</v>
@@ -9519,7 +9519,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -9569,7 +9569,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -9587,10 +9587,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K129">
         <v>0.001733542057967348</v>
@@ -9619,7 +9619,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>325</v>
@@ -9669,7 +9669,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>326</v>
@@ -9719,7 +9719,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>327</v>
@@ -9769,7 +9769,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>328</v>
@@ -9819,7 +9819,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>329</v>
@@ -9869,7 +9869,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>330</v>
@@ -9919,28 +9919,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K136">
         <v>0.001644582396861738</v>
@@ -9969,25 +9969,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>331</v>
@@ -10019,28 +10019,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K138">
         <v>0.001644582396861738</v>
@@ -10069,25 +10069,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>332</v>
@@ -10119,25 +10119,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>333</v>
@@ -10169,28 +10169,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F141">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K141">
         <v>0.001644582396861738</v>
@@ -10219,25 +10219,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F142">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>334</v>
@@ -10269,28 +10269,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E143">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>0.29</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K143">
         <v>0.001550527153387948</v>
@@ -10319,25 +10319,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F144">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>335</v>
@@ -10369,28 +10369,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K145">
         <v>0.001550527153387948</v>
@@ -10419,25 +10419,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>336</v>
@@ -10469,25 +10469,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E147">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F147">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>337</v>
@@ -10519,25 +10519,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>338</v>
@@ -10569,25 +10569,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E149">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>339</v>
@@ -10619,25 +10619,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E150">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>340</v>
@@ -10669,28 +10669,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K151">
         <v>0.001550527153387948</v>
@@ -10719,25 +10719,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>341</v>
@@ -10769,25 +10769,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E153">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>342</v>
@@ -10819,25 +10819,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>343</v>
@@ -10869,25 +10869,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>344</v>
@@ -10919,28 +10919,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
       <c r="D156">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K156">
         <v>0.001550527153387948</v>
@@ -10969,25 +10969,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F157">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>345</v>
@@ -11019,25 +11019,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>346</v>
@@ -11069,25 +11069,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E159">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>347</v>
@@ -11119,13 +11119,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E160">
         <v>0.96</v>
@@ -11137,7 +11137,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>348</v>
@@ -11169,13 +11169,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E161">
         <v>0.97</v>
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>349</v>
@@ -11219,25 +11219,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>350</v>
@@ -11269,25 +11269,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002643327954873139</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>351</v>
@@ -11319,25 +11319,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002643327954873139</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>352</v>
@@ -11369,7 +11369,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>353</v>
@@ -11419,25 +11419,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>354</v>
@@ -11469,7 +11469,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>355</v>
@@ -11519,7 +11519,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>356</v>
@@ -11569,7 +11569,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>357</v>
@@ -11619,7 +11619,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>358</v>
@@ -11669,7 +11669,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>359</v>
@@ -11719,7 +11719,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11737,10 +11737,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K172">
         <v>0.001450385344216897</v>
@@ -11769,7 +11769,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11787,10 +11787,10 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K173">
         <v>0.001342795904091534</v>
@@ -11819,25 +11819,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>360</v>
@@ -11869,7 +11869,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>361</v>
@@ -11919,25 +11919,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>362</v>
@@ -11969,7 +11969,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>363</v>
@@ -12019,25 +12019,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>364</v>
@@ -12069,7 +12069,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>365</v>
@@ -12119,25 +12119,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>366</v>
@@ -12169,7 +12169,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>367</v>
@@ -12219,25 +12219,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>368</v>
@@ -12269,25 +12269,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>369</v>
@@ -12319,25 +12319,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>370</v>
@@ -12369,25 +12369,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>371</v>
@@ -12419,7 +12419,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>372</v>
@@ -12469,7 +12469,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>373</v>
@@ -12519,7 +12519,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12537,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>374</v>
@@ -12569,25 +12569,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>375</v>
@@ -12619,28 +12619,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K190">
         <v>0.001342795904091534</v>
@@ -12669,25 +12669,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>376</v>
@@ -12719,19 +12719,19 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -12769,25 +12769,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>378</v>
@@ -12819,25 +12819,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>379</v>
@@ -12869,25 +12869,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>380</v>
@@ -12919,25 +12919,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>381</v>
@@ -12969,28 +12969,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K197">
         <v>0.001225799344660795</v>
@@ -13019,25 +13019,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>382</v>
@@ -13069,25 +13069,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>383</v>
@@ -13119,25 +13119,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>384</v>
@@ -13169,25 +13169,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>385</v>
@@ -13219,25 +13219,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>386</v>
@@ -13269,7 +13269,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>387</v>
@@ -13319,28 +13319,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K204">
         <v>0.001225799344660795</v>
@@ -13369,25 +13369,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>388</v>
@@ -13419,28 +13419,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K206">
         <v>0.001225799344660795</v>
@@ -13469,25 +13469,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>389</v>
@@ -13519,25 +13519,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E208">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F208">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>390</v>
@@ -13569,28 +13569,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K209">
         <v>0.001225799344660795</v>
@@ -13619,28 +13619,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F210">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K210">
         <v>0.001225799344660795</v>
@@ -13669,28 +13669,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K211">
         <v>0.001225799344660795</v>
@@ -13719,28 +13719,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F212">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K212">
         <v>0.001225799344660795</v>
@@ -13769,25 +13769,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>391</v>
@@ -13819,25 +13819,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>392</v>
@@ -13869,7 +13869,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13887,10 +13887,10 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K215">
         <v>0.001225799344660795</v>
@@ -13919,25 +13919,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>393</v>
@@ -13969,25 +13969,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>394</v>
@@ -14019,25 +14019,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>395</v>
@@ -14069,25 +14069,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F219">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>396</v>
@@ -14119,25 +14119,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>397</v>
@@ -14169,28 +14169,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K221">
         <v>0.001225799344660795</v>
@@ -14219,25 +14219,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>398</v>
@@ -14269,25 +14269,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>399</v>
@@ -14319,25 +14319,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>400</v>
@@ -14369,25 +14369,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>401</v>
@@ -14419,7 +14419,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14437,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>402</v>
@@ -14469,25 +14469,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>403</v>
@@ -14519,25 +14519,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>404</v>
@@ -14569,25 +14569,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>405</v>
@@ -14619,25 +14619,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>406</v>
@@ -14669,25 +14669,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>407</v>
@@ -14719,25 +14719,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F232">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>408</v>
@@ -14769,25 +14769,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>409</v>
@@ -14819,25 +14819,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>410</v>
@@ -14869,25 +14869,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>411</v>
@@ -14919,25 +14919,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>23</v>
+        <v>516</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>412</v>
@@ -14969,25 +14969,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>413</v>
@@ -15019,25 +15019,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>516</v>
+        <v>95</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>414</v>
@@ -15069,25 +15069,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E239">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F239">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>415</v>
@@ -15119,25 +15119,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>416</v>
@@ -15169,28 +15169,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E241">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F241">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K241">
         <v>0.001096388264574492</v>
@@ -15219,7 +15219,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15237,10 +15237,10 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K242">
         <v>0.001096388264574492</v>
@@ -15269,13 +15269,13 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E243">
         <v>0.99</v>
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>417</v>
@@ -15319,7 +15319,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15337,10 +15337,10 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K244">
         <v>0.001096388264574492</v>
@@ -15369,25 +15369,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="E245">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F245">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>418</v>
@@ -15419,25 +15419,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>419</v>
@@ -15469,25 +15469,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F247">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>420</v>
@@ -15519,28 +15519,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K248">
         <v>0.001096388264574492</v>
@@ -15569,25 +15569,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F249">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>421</v>
@@ -15619,25 +15619,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F250">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>422</v>
@@ -15669,28 +15669,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K251">
         <v>0.001096388264574492</v>
@@ -15719,25 +15719,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E252">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F252">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>423</v>
@@ -15769,25 +15769,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>424</v>
@@ -15819,25 +15819,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>425</v>
@@ -15869,25 +15869,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E255">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F255">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>426</v>
@@ -15919,25 +15919,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>427</v>
@@ -15969,25 +15969,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F257">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>428</v>
@@ -16019,25 +16019,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E258">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>429</v>
@@ -16069,25 +16069,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E259">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F259">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>430</v>
@@ -16119,25 +16119,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>431</v>
@@ -16169,25 +16169,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>432</v>
@@ -16219,25 +16219,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>433</v>
@@ -16269,25 +16269,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>434</v>
@@ -16319,25 +16319,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>435</v>
@@ -16369,25 +16369,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>436</v>
@@ -16419,25 +16419,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F266">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>437</v>
@@ -16469,7 +16469,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>438</v>
@@ -16519,25 +16519,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>439</v>
@@ -16569,28 +16569,28 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K269">
         <v>0.001096388264574492</v>
@@ -16619,7 +16619,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>440</v>
@@ -16669,7 +16669,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>441</v>
@@ -16715,30 +16715,6 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.001869115121790765</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>11</v>
-      </c>
       <c r="J272" s="1" t="s">
         <v>442</v>
       </c>
@@ -16764,31 +16740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.001869115121790765</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>21</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>443</v>
       </c>
@@ -16814,9 +16766,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K274">
         <v>0.001096388264574492</v>
@@ -16840,7 +16792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>444</v>
       </c>
@@ -16866,7 +16818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>445</v>
       </c>
@@ -16892,7 +16844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>446</v>
       </c>
@@ -16918,7 +16870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>447</v>
       </c>
@@ -16944,7 +16896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>448</v>
       </c>
@@ -16970,7 +16922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>449</v>
       </c>
@@ -16996,7 +16948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>450</v>
       </c>
@@ -17022,7 +16974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>451</v>
       </c>
@@ -17048,7 +17000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>452</v>
       </c>
@@ -17074,7 +17026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>453</v>
       </c>
@@ -17100,7 +17052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>454</v>
       </c>
@@ -17126,9 +17078,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K286">
         <v>0.0009495000895326446</v>
@@ -17152,9 +17104,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K287">
         <v>0.0009495000895326446</v>
@@ -17178,7 +17130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>455</v>
       </c>
@@ -17206,7 +17158,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K289">
         <v>0.0009495000895326446</v>
@@ -17258,7 +17210,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K291">
         <v>0.0009495000895326446</v>
@@ -17492,7 +17444,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K300">
         <v>0.0009495000895326446</v>
@@ -17856,7 +17808,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K314">
         <v>0.0009495000895326446</v>
@@ -17934,7 +17886,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K317">
         <v>0.0009495000895326446</v>
@@ -18298,7 +18250,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K331">
         <v>0.0009495000895326446</v>
@@ -18584,7 +18536,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K342">
         <v>0.0007752635766939741</v>
@@ -19130,7 +19082,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K363">
         <v>0.0007752635766939741</v>
@@ -19598,7 +19550,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K381">
         <v>0.0007752635766939741</v>
@@ -19754,7 +19706,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K387">
         <v>0.0007752635766939741</v>
@@ -19988,7 +19940,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K396">
         <v>0.0007752635766939741</v>
@@ -20248,7 +20200,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K406">
         <v>0.0007752635766939741</v>
@@ -20586,7 +20538,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K419">
         <v>0.0007752635766939741</v>
@@ -21314,7 +21266,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K447">
         <v>0.0007752635766939741</v>
@@ -21548,7 +21500,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K456">
         <v>0.0007752635766939741</v>
@@ -21678,7 +21630,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K461">
         <v>0.0007752635766939741</v>
@@ -21990,7 +21942,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K473">
         <v>0.0007752635766939741</v>
@@ -22380,7 +22332,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K488">
         <v>0.0005481941322872462</v>
@@ -23004,7 +22956,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K512">
         <v>0.0005481941322872462</v>
@@ -23888,7 +23840,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K546">
         <v>0.0005481941322872462</v>
@@ -24980,7 +24932,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K588">
         <v>0.0005481941322872462</v>
@@ -25786,7 +25738,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K619">
         <v>0.0005481941322872462</v>
@@ -25838,7 +25790,7 @@
     </row>
     <row r="621" spans="10:17">
       <c r="J621" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K621">
         <v>0.0005481941322872462</v>
@@ -26696,7 +26648,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K654">
         <v>0.0005481941322872462</v>
@@ -27086,7 +27038,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K669">
         <v>0.0005481941322872462</v>
@@ -27190,7 +27142,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K673">
         <v>0.0005481941322872462</v>
@@ -27528,7 +27480,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K686">
         <v>0.0005481941322872462</v>
@@ -28100,7 +28052,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K708">
         <v>0.0005481941322872462</v>
@@ -28204,7 +28156,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K712">
         <v>0.0005481941322872462</v>
@@ -28542,7 +28494,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K725">
         <v>0.0005481941322872462</v>
@@ -28802,7 +28754,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K735">
         <v>0.0005481941322872462</v>
@@ -29556,7 +29508,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K764">
         <v>0.0005481941322872462</v>
